--- a/ResEditor/Design/Stage/G_Player.xlsx
+++ b/ResEditor/Design/Stage/G_Player.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5740" yWindow="11600" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,15 +90,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dict[2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>width</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>height</t>
+    <t>nickname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>别称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楽园の素敌な巫女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霧雨 魔理沙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操纵魔法程度的能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通の黒魔术少女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -106,46 +126,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>nickname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>别称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>博丽霊梦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>楽园の素敌な巫女</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>霧雨 魔理沙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>操纵魔法程度的能力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通の黒魔术少女</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>speed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>extra</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -162,14 +142,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>判定区域</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>decisionPoint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>境界の妖怪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -191,6 +163,10 @@
   </si>
   <si>
     <t>八雲 紫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博丽 霊梦</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -258,8 +234,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -268,9 +248,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="7">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -600,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -611,10 +595,9 @@
     <col min="1" max="3" width="22.1640625" customWidth="1"/>
     <col min="4" max="4" width="30.5" customWidth="1"/>
     <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="9" max="9" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -622,7 +605,7 @@
         <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D1" t="s">
         <v>10</v>
@@ -634,16 +617,13 @@
         <v>12</v>
       </c>
       <c r="G1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -651,7 +631,7 @@
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -663,22 +643,13 @@
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -698,35 +669,26 @@
         <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:11" hidden="1"/>
-    <row r="5" spans="1:11" hidden="1"/>
-    <row r="6" spans="1:11">
+    <row r="4" spans="1:8" hidden="1"/>
+    <row r="5" spans="1:8" hidden="1"/>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>10100001</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -737,25 +699,19 @@
       <c r="G6">
         <v>2</v>
       </c>
-      <c r="J6">
-        <v>32</v>
-      </c>
-      <c r="K6">
-        <v>48</v>
-      </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>10100002</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -766,25 +722,19 @@
       <c r="G7">
         <v>2</v>
       </c>
-      <c r="J7">
-        <v>32</v>
-      </c>
-      <c r="K7">
-        <v>48</v>
-      </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>10100003</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -795,25 +745,19 @@
       <c r="G8">
         <v>2</v>
       </c>
-      <c r="J8">
-        <v>32</v>
-      </c>
-      <c r="K8">
-        <v>48</v>
-      </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>10100004</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E9" s="2">
         <v>1</v>
@@ -825,13 +769,6 @@
         <v>2</v>
       </c>
       <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2">
-        <v>32</v>
-      </c>
-      <c r="K9" s="2">
-        <v>48</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/ResEditor/Design/Stage/G_Player.xlsx
+++ b/ResEditor/Design/Stage/G_Player.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="1520" yWindow="9700" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -167,6 +167,18 @@
   </si>
   <si>
     <t>博丽 霊梦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bulletCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -234,8 +246,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -248,13 +262,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="9">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -584,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -595,9 +611,10 @@
     <col min="1" max="3" width="22.1640625" customWidth="1"/>
     <col min="4" max="4" width="30.5" customWidth="1"/>
     <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -620,10 +637,13 @@
         <v>23</v>
       </c>
       <c r="H1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -646,10 +666,13 @@
         <v>24</v>
       </c>
       <c r="H2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -672,12 +695,15 @@
         <v>25</v>
       </c>
       <c r="H3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1"/>
-    <row r="5" spans="1:8" hidden="1"/>
-    <row r="6" spans="1:8">
+    <row r="4" spans="1:9" hidden="1"/>
+    <row r="5" spans="1:9" hidden="1"/>
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>10100001</v>
       </c>
@@ -699,8 +725,11 @@
       <c r="G6">
         <v>2</v>
       </c>
+      <c r="H6">
+        <v>10500001</v>
+      </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>10100002</v>
       </c>
@@ -723,7 +752,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" s="1">
         <v>10100003</v>
       </c>
@@ -746,7 +775,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9" s="1">
         <v>10100004</v>
       </c>
@@ -768,7 +797,7 @@
       <c r="G9" s="2">
         <v>2</v>
       </c>
-      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/ResEditor/Design/Stage/G_Player.xlsx
+++ b/ResEditor/Design/Stage/G_Player.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="9700" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="1515" yWindow="9705" windowWidth="25605" windowHeight="16065" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -167,26 +167,14 @@
   </si>
   <si>
     <t>博丽 霊梦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bulletCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>子弹</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -263,15 +251,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="9">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -599,22 +587,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="3" width="22.1640625" customWidth="1"/>
+    <col min="1" max="3" width="22.125" customWidth="1"/>
     <col min="4" max="4" width="30.5" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -637,13 +624,10 @@
         <v>23</v>
       </c>
       <c r="H1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -666,13 +650,10 @@
         <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -695,15 +676,12 @@
         <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:9" hidden="1"/>
-    <row r="5" spans="1:9" hidden="1"/>
-    <row r="6" spans="1:9">
+    <row r="4" spans="1:8" hidden="1"/>
+    <row r="5" spans="1:8" hidden="1"/>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>10100001</v>
       </c>
@@ -725,11 +703,8 @@
       <c r="G6">
         <v>2</v>
       </c>
-      <c r="H6">
-        <v>10500001</v>
-      </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>10100002</v>
       </c>
@@ -752,7 +727,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>10100003</v>
       </c>
@@ -775,7 +750,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>10100004</v>
       </c>
@@ -797,7 +772,7 @@
       <c r="G9" s="2">
         <v>2</v>
       </c>
-      <c r="I9" s="2"/>
+      <c r="H9" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -812,14 +787,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
